--- a/jira456.xlsx
+++ b/jira456.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus22-PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus22-PC\Documents\GitHub\chikku123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998D6D6F-BA07-4338-B408-8FE68E36CB55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48577DDE-5861-4CC1-B202-6C63E34AC565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
